--- a/หนี้สินเฉลี่ยต่อครัวเรือน จำแนกตามวัตถุประสงค์ของการกู้ยืม เป็นรายจังหวัด_พ.ศ._2545-2560_edit.xlsx
+++ b/หนี้สินเฉลี่ยต่อครัวเรือน จำแนกตามวัตถุประสงค์ของการกู้ยืม เป็นรายจังหวัด_พ.ศ._2545-2560_edit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93217DBC-69DE-4AF7-8825-8C8E8EA309E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF9C56-1A85-4F7F-BFA1-66BC71302389}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -739,7 +739,7 @@
   <dimension ref="A1:L540"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -792,7 +792,7 @@
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>11</v>
